--- a/P0002/09_FICHAS/N4-Var_Datos.xlsx
+++ b/P0002/09_FICHAS/N4-Var_Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0002\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636DF345-B49E-4732-AAEA-89479311436C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{636DF345-B49E-4732-AAEA-89479311436C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9299145-8C39-40DA-BBF1-E16BC144F454}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
     <t>R0030</t>
   </si>
   <si>
-    <t>Raster, que contiene variables de respuesta al efecto de la recarga neta al acuífero, se obtiene los valors y zonas de descarga de flujo base a cuerpos de agua superficial</t>
+    <t>Raster, que contiene variables de respuesta al efecto de la recarga neta al acuífero, se obtiene los valores y zonas de descarga de flujo base a cuerpos de agua superficial</t>
   </si>
   <si>
     <t>Descarga flujo base a superficie, resultados modelo hidrogeológico numérico, flujo regional, escenario promedio calibración, manchas de agua</t>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,11 +762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -778,7 +778,7 @@
     <col min="21" max="50" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
